--- a/original-sources/historical/hhs/hhs_data_2020-07-22.xlsx
+++ b/original-sources/historical/hhs/hhs_data_2020-07-22.xlsx
@@ -1,415 +1,430 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffb\Desktop\Life\personal-projects\COVID\original-sources\historical\hhs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A42ABF2-BEDB-417E-9214-07C5E867BA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
-  <si>
-    <t xml:space="preserve">ï..OBJECTID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_abbr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hhs_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fac_reporting_20200720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definitive_fac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pct_fac_reporting_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape__Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape__Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District of Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Hampshire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pennsylvania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhode Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vermont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Virgin Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+  <si>
+    <t>ï..OBJECTID</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>state_fips</t>
+  </si>
+  <si>
+    <t>state_abbr</t>
+  </si>
+  <si>
+    <t>hhs_region</t>
+  </si>
+  <si>
+    <t>fac_reporting_20200720</t>
+  </si>
+  <si>
+    <t>definitive_fac</t>
+  </si>
+  <si>
+    <t>pct_fac_reporting_def</t>
+  </si>
+  <si>
+    <t>Shape__Area</t>
+  </si>
+  <si>
+    <t>Shape__Length</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,13 +447,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -720,14 +745,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,1891 +785,2068 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>23</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
-        <v>277.524097023768</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407.570958324101</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>277.52409702376798</v>
+      </c>
+      <c r="J2">
+        <v>407.57095832410101</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>377</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>386</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>97.66</v>
       </c>
-      <c r="I3" t="n">
-        <v>41.5336180842396</v>
-      </c>
-      <c r="J3" t="n">
-        <v>42.2601574991052</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>41.533618084239599</v>
+      </c>
+      <c r="J3">
+        <v>42.260157499105198</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>27</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.42928890223811</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>1.4292889022381099</v>
+      </c>
+      <c r="J4">
         <v>11.9527869436732</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="K4" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>39</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>46</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>84.78</v>
       </c>
-      <c r="I5" t="n">
-        <v>24.391595323606</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28.5296728484553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>24.391595323606001</v>
+      </c>
+      <c r="J5">
+        <v>28.529672848455299</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>48</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>48</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="I6" t="n">
-        <v>29.9699249550986</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>29.969924955098602</v>
+      </c>
+      <c r="J6">
         <v>23.6087337781305</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="K6" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>59</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>62</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>95.16</v>
       </c>
-      <c r="I7" t="n">
-        <v>28.1877890928422</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24.7872488348153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>28.187789092842198</v>
+      </c>
+      <c r="J7">
+        <v>24.787248834815301</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>86</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>93</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>92.47</v>
       </c>
-      <c r="I8" t="n">
-        <v>20.7507578217305</v>
-      </c>
-      <c r="J8" t="n">
-        <v>34.9568573750297</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>20.750757821730499</v>
+      </c>
+      <c r="J8">
+        <v>34.956857375029699</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>68</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>76</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>89.47</v>
       </c>
-      <c r="I9" t="n">
-        <v>28.8590896902251</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>28.859089690225101</v>
+      </c>
+      <c r="J9">
         <v>23.2572697290375</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="K9" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>71</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>84</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>84.52</v>
       </c>
-      <c r="I10" t="n">
-        <v>13.5174647428059</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10">
+        <v>13.517464742805901</v>
+      </c>
+      <c r="J10">
         <v>20.877179341548</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="K10" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>83</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>92</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>90.22</v>
       </c>
-      <c r="I11" t="n">
-        <v>28.0415971951431</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22.0256262721942</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>28.041597195143101</v>
+      </c>
+      <c r="J11">
+        <v>22.025626272194199</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>128</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>130</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>98.46</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>15.8533793043405</v>
       </c>
-      <c r="J12" t="n">
-        <v>18.7903206413307</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="J12">
+        <v>18.790320641330698</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>118</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>142</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>83.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>21.9823053512871</v>
-      </c>
-      <c r="J13" t="n">
-        <v>21.1048705539639</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>21.982305351287099</v>
+      </c>
+      <c r="J13">
+        <v>21.104870553963899</v>
+      </c>
+      <c r="K13" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>180</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>183</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>98.36</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>11.2246534357157</v>
       </c>
-      <c r="J14" t="n">
-        <v>32.5702758640733</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="J14">
+        <v>32.570275864073302</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>127</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>127</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="I15" t="n">
-        <v>25.5778358060018</v>
-      </c>
-      <c r="J15" t="n">
-        <v>29.5110548878106</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>25.577835806001801</v>
+      </c>
+      <c r="J15">
+        <v>29.511054887810602</v>
+      </c>
+      <c r="K15" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>109</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>120</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>90.83</v>
       </c>
-      <c r="I16" t="n">
-        <v>18.647903727013</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23.5959465236339</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>18.647903727012999</v>
+      </c>
+      <c r="J16">
+        <v>23.595946523633899</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>64</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>66</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>96.97</v>
       </c>
-      <c r="I17" t="n">
-        <v>45.1343020658387</v>
-      </c>
-      <c r="J17" t="n">
-        <v>34.5280658083754</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>45.134302065838703</v>
+      </c>
+      <c r="J17">
+        <v>34.528065808375402</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>95</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>99</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>95.96</v>
       </c>
-      <c r="I18" t="n">
-        <v>21.6069402853325</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23.3833196259553</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>21.606940285332499</v>
+      </c>
+      <c r="J18">
+        <v>23.383319625955298</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>38</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>78.95</v>
       </c>
-      <c r="I19" t="n">
-        <v>30.9366471456738</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I19">
+        <v>30.936647145673799</v>
+      </c>
+      <c r="J19">
         <v>23.5377110630426</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="K19" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>48</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>100</v>
       </c>
-      <c r="I20" t="n">
-        <v>21.8748743168553</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21.3533067056279</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>21.874874316855301</v>
+      </c>
+      <c r="J20">
+        <v>21.353306705627901</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>132</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>135</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>97.78</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>18.0314613558396</v>
       </c>
-      <c r="J21" t="n">
-        <v>25.5572653890967</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="J21">
+        <v>25.557265389096699</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>57</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>87.72</v>
       </c>
-      <c r="I22" t="n">
-        <v>22.5981054187241</v>
-      </c>
-      <c r="J22" t="n">
-        <v>22.746545647107</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>22.598105418724099</v>
+      </c>
+      <c r="J22">
+        <v>22.746545647106998</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>415</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>482</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>86.1</v>
       </c>
-      <c r="I23" t="n">
-        <v>65.0596423120458</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I23">
+        <v>65.059642312045796</v>
+      </c>
+      <c r="J23">
         <v>64.8074583859905</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="K23" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>46</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>52</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>88.46</v>
       </c>
-      <c r="I24" t="n">
-        <v>22.9674234860406</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I24">
+        <v>22.967423486040602</v>
+      </c>
+      <c r="J24">
         <v>19.9922227331591</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="K24" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>29</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>29</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>100</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>27.9666882980537</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>21.9870299734703</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="K25" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>102</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>102</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>100</v>
       </c>
-      <c r="I26" t="n">
-        <v>12.8971685485001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>17.2376579292563</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>12.897168548500099</v>
+      </c>
+      <c r="J26">
+        <v>17.237657929256301</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>33</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>90.91</v>
       </c>
-      <c r="I27" t="n">
-        <v>1.39252465923551</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I27">
+        <v>1.3925246592355101</v>
+      </c>
+      <c r="J27">
         <v>5.72245921907398</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="K27" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>8</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>62.5</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.553340464881785</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.07536505514256</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>0.55334046488178501</v>
+      </c>
+      <c r="J28">
+        <v>4.0753650551425604</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>12</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>13</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>92.31</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.0177698306006278</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.632462402279614</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1.7769830600627801E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.63246240227961403</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>223</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>224</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>99.55</v>
       </c>
-      <c r="I30" t="n">
-        <v>13.3476723761734</v>
-      </c>
-      <c r="J30" t="n">
-        <v>41.0850101590848</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>13.347672376173399</v>
+      </c>
+      <c r="J30">
+        <v>41.085010159084803</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>126</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>140</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>90</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>14.5988274159242</v>
       </c>
-      <c r="J31" t="n">
-        <v>20.1034674931405</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="J31">
+        <v>20.103467493140499</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>178</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>188</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>94.68</v>
       </c>
-      <c r="I32" t="n">
-        <v>15.3968655288377</v>
-      </c>
-      <c r="J32" t="n">
-        <v>19.9992245695128</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>15.396865528837701</v>
+      </c>
+      <c r="J32">
+        <v>19.999224569512801</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>104</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>126</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>82.54</v>
       </c>
-      <c r="I33" t="n">
-        <v>9.9321297241936</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I33">
+        <v>9.9321297241936009</v>
+      </c>
+      <c r="J33">
         <v>16.1103069470809</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="K33" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>98</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>99</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>98.99</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>10.6453959664814</v>
       </c>
-      <c r="J34" t="n">
-        <v>21.1523487327623</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="J34">
+        <v>21.152348732762299</v>
+      </c>
+      <c r="K34" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>30</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>34</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>88.24</v>
       </c>
-      <c r="I35" t="n">
-        <v>9.57069799691476</v>
-      </c>
-      <c r="J35" t="n">
-        <v>18.8987201269951</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>9.5706979969147596</v>
+      </c>
+      <c r="J35">
+        <v>18.898720126995102</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>48</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>50</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>96</v>
       </c>
-      <c r="I36" t="n">
-        <v>2.62515321099863</v>
-      </c>
-      <c r="J36" t="n">
-        <v>21.8809236006354</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>2.6251532109986302</v>
+      </c>
+      <c r="J36">
+        <v>21.880923600635398</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>69</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>78</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>88.46</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.30920890923403</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="I37">
+        <v>2.3092089092340302</v>
+      </c>
+      <c r="J37">
         <v>13.1051255991428</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="K37" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>132</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>150</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>88</v>
       </c>
-      <c r="I38" t="n">
-        <v>16.9282599379692</v>
-      </c>
-      <c r="J38" t="n">
-        <v>40.8232803907847</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>16.928259937969202</v>
+      </c>
+      <c r="J38">
+        <v>40.823280390784703</v>
+      </c>
+      <c r="K38" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>85</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>81</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>96</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>84.38</v>
       </c>
-      <c r="I39" t="n">
-        <v>11.8710687359621</v>
-      </c>
-      <c r="J39" t="n">
-        <v>22.0600157416285</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>11.871068735962099</v>
+      </c>
+      <c r="J39">
+        <v>22.060015741628501</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>87</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>26</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>26</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>100</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>2.6772960981798</v>
       </c>
-      <c r="J40" t="n">
-        <v>8.37458017541608</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="J40">
+        <v>8.3745801754160798</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>34</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>63</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>76</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>82.89</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.05674065706535</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.41959364715719</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>2.0567406570653501</v>
+      </c>
+      <c r="J41">
+        <v>8.4195936471571908</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>157</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>173</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>90.75</v>
       </c>
-      <c r="I42" t="n">
-        <v>13.8749478988084</v>
-      </c>
-      <c r="J42" t="n">
-        <v>28.4874693243922</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>13.874947898808401</v>
+      </c>
+      <c r="J42">
+        <v>28.487469324392201</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>37</v>
       </c>
       <c r="D43" t="s">
         <v>93</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>109</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>114</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>95.61</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>12.6281360099888</v>
       </c>
-      <c r="J43" t="n">
-        <v>34.5834965407093</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="J43">
+        <v>34.583496540709298</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>39</v>
       </c>
       <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>158</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>194</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>81.44</v>
       </c>
-      <c r="I44" t="n">
-        <v>11.3002009793177</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16.1304354133078</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>11.300200979317699</v>
+      </c>
+      <c r="J44">
+        <v>16.130435413307801</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>201</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>206</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>97.57</v>
       </c>
-      <c r="I45" t="n">
-        <v>12.5503125404571</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="I45">
+        <v>12.550312540457099</v>
+      </c>
+      <c r="J45">
         <v>16.8410838362311</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="K45" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>10</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>11</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>90.91</v>
       </c>
-      <c r="I46" t="n">
-        <v>0.292628964959022</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.64267357764134</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>0.29262896495902202</v>
+      </c>
+      <c r="J46">
+        <v>3.6426735776413399</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>101</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>62</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>68</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>91.18</v>
       </c>
-      <c r="I47" t="n">
-        <v>7.79450431593887</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="I47">
+        <v>7.7945043159388696</v>
+      </c>
+      <c r="J47">
         <v>16.1270830720728</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="K47" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>103</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>4</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>107</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>107</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="I48" t="n">
-        <v>10.8766116311831</v>
-      </c>
-      <c r="J48" t="n">
-        <v>21.4603363220314</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>10.876611631183099</v>
+      </c>
+      <c r="J48">
+        <v>21.460336322031399</v>
+      </c>
+      <c r="K48" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>105</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>13</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>14</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>92.86</v>
       </c>
-      <c r="I49" t="n">
-        <v>2.79411669663068</v>
-      </c>
-      <c r="J49" t="n">
-        <v>8.45014587394864</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="I49">
+        <v>2.7941166966306801</v>
+      </c>
+      <c r="J49">
+        <v>8.4501458739486406</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>107</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>80</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>90</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>88.89</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>10.5123344483534</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>31.1995914738484</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="K50" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>54</v>
       </c>
       <c r="D51" t="s">
         <v>109</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>45</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>54</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>83.33</v>
       </c>
-      <c r="I51" t="n">
-        <v>6.49329429001023</v>
-      </c>
-      <c r="J51" t="n">
-        <v>18.1962363076172</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="I51">
+        <v>6.4932942900102297</v>
+      </c>
+      <c r="J51">
+        <v>18.196236307617198</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>55</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>126</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>129</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>97.67</v>
       </c>
-      <c r="I52" t="n">
-        <v>16.4773273319247</v>
-      </c>
-      <c r="J52" t="n">
-        <v>21.8914009902698</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="I52">
+        <v>16.477327331924698</v>
+      </c>
+      <c r="J52">
+        <v>21.891400990269801</v>
+      </c>
+      <c r="K52" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>113</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>9</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>100</v>
       </c>
-      <c r="I53" t="n">
-        <v>0.0137197186634239</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.600124356952566</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="I53">
+        <v>1.37197186634239E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.60012435695256605</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>114</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>66</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>9</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>3</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>100</v>
       </c>
-      <c r="I54" t="n">
-        <v>0.0480572423497279</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.12001626312496</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="I54">
+        <v>4.8057242349727899E-2</v>
+      </c>
+      <c r="J54">
+        <v>1.1200162631249599</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>68</v>
       </c>
       <c r="D55" t="s">
         <v>117</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>9</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0.00284490858211939</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.683479015444908</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+      <c r="I55">
+        <v>2.8449085821193902E-3</v>
+      </c>
+      <c r="J55">
+        <v>0.68347901544490797</v>
+      </c>
+      <c r="K55" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>118</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>69</v>
       </c>
       <c r="D56" t="s">
         <v>119</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>9</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>100</v>
       </c>
-      <c r="I56" t="n">
-        <v>0.019927030844201</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.908853027385353</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="I56">
+        <v>1.9927030844200999E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.90885302738535301</v>
+      </c>
+      <c r="K56" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>72</v>
       </c>
       <c r="D57" t="s">
         <v>121</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>59</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>59</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>100</v>
       </c>
-      <c r="I57" t="n">
-        <v>0.781350814573898</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.78861765850568</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="I57">
+        <v>0.78135081457389799</v>
+      </c>
+      <c r="J57">
+        <v>4.7886176585056797</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>123</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>2</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>50</v>
       </c>
-      <c r="I58" t="n">
-        <v>0.0256854986855615</v>
-      </c>
-      <c r="J58" t="n">
+      <c r="I58">
+        <v>2.5685498685561501E-2</v>
+      </c>
+      <c r="J58">
         <v>1.23662789403411</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="K58" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>124</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>70</v>
       </c>
       <c r="D59" t="s">
         <v>125</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>9</v>
       </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59" t="n">
-        <v>0.0311360277009953</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.1053233016917</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="I59">
+        <v>3.11360277009953E-2</v>
+      </c>
+      <c r="J59">
+        <v>1.1053233016916999</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>126</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>127</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>9</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0.0422057750830618</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.04242124055477</v>
+      <c r="I60">
+        <v>4.2205775083061801E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.0424212405547699</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44034</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>